--- a/video_updaets.xlsx
+++ b/video_updaets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\VCM\customer_portal-vcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CF5E0-88FD-47DF-94CB-2415DDA2A0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FF90E-46B5-4A8C-8CF3-63437982AF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC7E6B9-DDE5-4796-B05F-2DDE57C817E3}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>10RZwBwctP-MwzQtNS78Eeue-zrJKY2pO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AWARD NUMBER</t>
   </si>
@@ -39,28 +36,7 @@
     <t>GID</t>
   </si>
   <si>
-    <t>1GlU6iD3-IMYpBsw-vFs2oXQl7VPKPbYN</t>
-  </si>
-  <si>
-    <t>1W2Qj0H-LnQVY0_8OUfarPdbSZO5PfuqS</t>
-  </si>
-  <si>
-    <t>1C7zvFFFCrgzSixCcvD4gbgJzAYNibHrT</t>
-  </si>
-  <si>
-    <t>11rCI_7YpnPph-JlYrYghrG6iaLBb6bpE</t>
-  </si>
-  <si>
-    <t>1uI1sSH2RCsQ2VTSA3kDbvEUYBCYZUpXV</t>
-  </si>
-  <si>
-    <t>16iPpxvffNmZaYwIMn3Rq8RWSX9UAWYU2</t>
-  </si>
-  <si>
-    <t>1aZ5fHdUD_pYI-3kM1_Lc0NQNu2HVOxsg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yW2PMT9wyspSUIpJwcztksxCAwJU0Lkd/view?usp=sharing</t>
+    <t>1iuUHOBGeIOzKx87A6x4_WrrA-cEwJNy3</t>
   </si>
 </sst>
 </file>
@@ -412,122 +388,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A1214-DD7C-467B-BB56-DF3A76215DF7}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/video_updaets.xlsx
+++ b/video_updaets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\VCM\customer_portal-vcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FF90E-46B5-4A8C-8CF3-63437982AF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D130817-C2A5-4E59-9EA4-C47A9F7C1365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC7E6B9-DDE5-4796-B05F-2DDE57C817E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>AWARD NUMBER</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>1iuUHOBGeIOzKx87A6x4_WrrA-cEwJNy3</t>
+  </si>
+  <si>
+    <t>1sW3BvBXLydx542ZVr-F8Z4g7YcaEsyXp</t>
+  </si>
+  <si>
+    <t>1CbGzrDMU1rZ1ZmsnJXVxsbatbx90Dre8</t>
+  </si>
+  <si>
+    <t>1EhD2YsSsh0oDpym9FVGlYJ2U5eJQE2pH</t>
   </si>
 </sst>
 </file>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A1214-DD7C-467B-BB56-DF3A76215DF7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +427,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/video_updaets.xlsx
+++ b/video_updaets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\VCM\customer_portal-vcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D130817-C2A5-4E59-9EA4-C47A9F7C1365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD60F2F-2324-4A20-8E00-D528D603D5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DC7E6B9-DDE5-4796-B05F-2DDE57C817E3}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{4DC7E6B9-DDE5-4796-B05F-2DDE57C817E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AWARD NUMBER</t>
   </si>
@@ -36,16 +36,22 @@
     <t>GID</t>
   </si>
   <si>
-    <t>1iuUHOBGeIOzKx87A6x4_WrrA-cEwJNy3</t>
-  </si>
-  <si>
-    <t>1sW3BvBXLydx542ZVr-F8Z4g7YcaEsyXp</t>
-  </si>
-  <si>
-    <t>1CbGzrDMU1rZ1ZmsnJXVxsbatbx90Dre8</t>
-  </si>
-  <si>
-    <t>1EhD2YsSsh0oDpym9FVGlYJ2U5eJQE2pH</t>
+    <t>1NR9okX_AsDDt0KoryfE8w2TLvD9wKHMZ</t>
+  </si>
+  <si>
+    <t>1jZKdi6kkb9jblBPQOZyeR6Pe4Q3NytPt</t>
+  </si>
+  <si>
+    <t>1ysTdwfmc4Aq42GEn6xAsPZCf2A2QrOqW</t>
+  </si>
+  <si>
+    <t>1yhk4HyO3kmixGQeRA_0-QUrhyoTFa9VP</t>
+  </si>
+  <si>
+    <t>1QVsKOmuYSJ1CUfRKE-o9wheptCRTPjxy</t>
+  </si>
+  <si>
+    <t>1cE0InHcm3ONqc6E9lot3q7xe17F56_9z</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A1214-DD7C-467B-BB56-DF3A76215DF7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +424,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -429,10 +435,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -440,10 +446,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -451,13 +457,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
